--- a/_linhtinh/file_linhtinh/location_PG.xlsx
+++ b/_linhtinh/file_linhtinh/location_PG.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\P&amp;G\my_project\_linhtinh\file_linhtinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E78D21-2E7C-4C04-AD3F-EAE069D9EDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E0CFA3-C9C7-41C5-9CFF-DF4E2188C71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="3" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="3" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
   </bookViews>
   <sheets>
     <sheet name="WH2" sheetId="1" r:id="rId1"/>
     <sheet name="WH3" sheetId="2" r:id="rId2"/>
     <sheet name="WH1" sheetId="3" r:id="rId3"/>
-    <sheet name="LABEL" sheetId="4" r:id="rId4"/>
-    <sheet name="CL3" sheetId="5" r:id="rId5"/>
-    <sheet name="CL1" sheetId="6" r:id="rId6"/>
-    <sheet name="CL2" sheetId="7" r:id="rId7"/>
-    <sheet name="PF5" sheetId="8" r:id="rId8"/>
-    <sheet name="PF4" sheetId="10" r:id="rId9"/>
-    <sheet name="PF3" sheetId="11" r:id="rId10"/>
-    <sheet name="PF2" sheetId="12" r:id="rId11"/>
-    <sheet name="PF1" sheetId="13" r:id="rId12"/>
+    <sheet name="LABEL_OLD" sheetId="14" r:id="rId4"/>
+    <sheet name="LABEL" sheetId="4" r:id="rId5"/>
+    <sheet name="CL3" sheetId="5" r:id="rId6"/>
+    <sheet name="CL1" sheetId="6" r:id="rId7"/>
+    <sheet name="CL2" sheetId="7" r:id="rId8"/>
+    <sheet name="PF5" sheetId="8" r:id="rId9"/>
+    <sheet name="PF4" sheetId="10" r:id="rId10"/>
+    <sheet name="PF3" sheetId="11" r:id="rId11"/>
+    <sheet name="PF2" sheetId="12" r:id="rId12"/>
+    <sheet name="PF1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CL1'!$A$1:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CL2'!$A$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CL3'!$A$1:$D$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'PF1'!$A$1:$E$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'PF2'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PF3'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PF4'!$A$1:$E$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PF5'!$A$1:$E$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CL1'!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'CL2'!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CL3'!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'PF1'!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'PF2'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'PF3'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PF4'!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PF5'!$A$1:$E$156</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,12 +45,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -307,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="599">
   <si>
     <t>STT</t>
   </si>
@@ -2095,6 +2091,15 @@
   </si>
   <si>
     <t>FZ112</t>
+  </si>
+  <si>
+    <t>LB1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>LB2</t>
   </si>
 </sst>
 </file>
@@ -2989,6 +2994,674 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>476</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>479</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>480</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" ref="A34:A53" si="1">ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>465</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>467</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>484</v>
+      </c>
+      <c r="E41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>485</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>486</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>498</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>499</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>488</v>
+      </c>
+      <c r="E52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+      <c r="E53">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E53" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
+      <sortCondition ref="B1:B53"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6042DF-4EBE-4EA9-8D04-2EA78291B56C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3413,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9583AA52-5F44-4083-8962-4161C00EA6CA}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3838,7 +4511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F1528E-0B9C-4CD2-89EB-8FFD151EF771}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -6103,11 +6776,562 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2703B7C7-6FE4-489B-A4A6-86279E170CB0}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A34" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2966FB6C-C3F7-40CD-A351-BF1800F7F8C4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6578,12 +7802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0740C1D-B203-4921-BA8D-9A25B3E64DAD}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6974,7 +8198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD6866-97AD-42DA-9774-4678D1F72157}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -7307,7 +8531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821F370-0792-4A0C-900F-286BE5257D66}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -8275,7 +9499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CCAB88-15F1-429D-84DF-E1E5D4D0A493}">
   <dimension ref="A1:E156"/>
   <sheetViews>
@@ -10177,672 +11401,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
-  <dimension ref="A1:J53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>457</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>473</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>489</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>458</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>475</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>476</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>462</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>495</v>
-      </c>
-      <c r="E30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>464</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>480</v>
-      </c>
-      <c r="E32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>496</v>
-      </c>
-      <c r="E33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" ref="A34:A53" si="1">ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>465</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>481</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>466</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>482</v>
-      </c>
-      <c r="E37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>467</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>468</v>
-      </c>
-      <c r="E40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>484</v>
-      </c>
-      <c r="E41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>469</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>485</v>
-      </c>
-      <c r="E43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>497</v>
-      </c>
-      <c r="E44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>486</v>
-      </c>
-      <c r="E46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>498</v>
-      </c>
-      <c r="E47">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>471</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>487</v>
-      </c>
-      <c r="E49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>472</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>500</v>
-      </c>
-      <c r="E53">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E53" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
-      <sortCondition ref="B1:B53"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/_linhtinh/file_linhtinh/location_PG.xlsx
+++ b/_linhtinh/file_linhtinh/location_PG.xlsx
@@ -8,34 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\P&amp;G\my_project\_linhtinh\file_linhtinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E0CFA3-C9C7-41C5-9CFF-DF4E2188C71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E32F7B3-69AF-4AAD-9142-526208190929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="3" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="7" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
   </bookViews>
   <sheets>
     <sheet name="WH2" sheetId="1" r:id="rId1"/>
     <sheet name="WH3" sheetId="2" r:id="rId2"/>
     <sheet name="WH1" sheetId="3" r:id="rId3"/>
-    <sheet name="LABEL_OLD" sheetId="14" r:id="rId4"/>
-    <sheet name="LABEL" sheetId="4" r:id="rId5"/>
-    <sheet name="CL3" sheetId="5" r:id="rId6"/>
-    <sheet name="CL1" sheetId="6" r:id="rId7"/>
-    <sheet name="CL2" sheetId="7" r:id="rId8"/>
-    <sheet name="PF5" sheetId="8" r:id="rId9"/>
-    <sheet name="PF4" sheetId="10" r:id="rId10"/>
-    <sheet name="PF3" sheetId="11" r:id="rId11"/>
-    <sheet name="PF2" sheetId="12" r:id="rId12"/>
-    <sheet name="PF1" sheetId="13" r:id="rId13"/>
+    <sheet name="LABEL" sheetId="4" r:id="rId4"/>
+    <sheet name="CL3" sheetId="5" r:id="rId5"/>
+    <sheet name="CL1" sheetId="6" r:id="rId6"/>
+    <sheet name="CL2" sheetId="7" r:id="rId7"/>
+    <sheet name="PF5" sheetId="8" r:id="rId8"/>
+    <sheet name="PF4" sheetId="10" r:id="rId9"/>
+    <sheet name="PF3" sheetId="11" r:id="rId10"/>
+    <sheet name="PF2" sheetId="12" r:id="rId11"/>
+    <sheet name="PF1" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CL1'!$A$1:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'CL2'!$A$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CL3'!$A$1:$D$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'PF1'!$A$1:$E$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'PF2'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'PF3'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PF4'!$A$1:$E$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PF5'!$A$1:$E$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CL1'!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CL2'!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CL3'!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'PF1'!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'PF2'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PF3'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PF4'!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PF5'!$A$1:$E$172</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,6 +52,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bien, NguyenngocCJGMD [Non-PG]</author>
+  </authors>
+  <commentList>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{1C1B9214-ED7B-471E-B945-8C0EBD6986A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bien, NguyenngocCJGMD [Non-PG]:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Thay đổi tầng FM mới 04/01/2025.
+Tầng cũ: A; B; C; D; E</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bien, NguyenngocCJGMD [Non-PG]</author>
@@ -303,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="613">
   <si>
     <t>STT</t>
   </si>
@@ -2093,13 +2127,55 @@
     <t>FZ112</t>
   </si>
   <si>
-    <t>LB1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>LB2</t>
+    <t>A; B; C1; C2; D1; D2; E</t>
+  </si>
+  <si>
+    <t>Z520A</t>
+  </si>
+  <si>
+    <t>Z521A</t>
+  </si>
+  <si>
+    <t>Z522A</t>
+  </si>
+  <si>
+    <t>Z523A</t>
+  </si>
+  <si>
+    <t>Z524A</t>
+  </si>
+  <si>
+    <t>Z525A</t>
+  </si>
+  <si>
+    <t>Z526A</t>
+  </si>
+  <si>
+    <t>Z527A</t>
+  </si>
+  <si>
+    <t>Z528A</t>
+  </si>
+  <si>
+    <t>Z529A</t>
+  </si>
+  <si>
+    <t>Z530A</t>
+  </si>
+  <si>
+    <t>Z531A</t>
+  </si>
+  <si>
+    <t>Z532A</t>
+  </si>
+  <si>
+    <t>Z533A</t>
+  </si>
+  <si>
+    <t>Z534A</t>
+  </si>
+  <si>
+    <t>Z535A</t>
   </si>
 </sst>
 </file>
@@ -2198,15 +2274,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2547,11 +2623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40EC124-B48C-47DB-88CF-E0A094BCC08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40EC124-B48C-47DB-88CF-E0A094BCC08F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,7 +2914,7 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2990,683 +3066,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
-  <dimension ref="A1:J53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>457</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>473</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>489</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>458</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>475</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>476</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>462</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>495</v>
-      </c>
-      <c r="E30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>464</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>480</v>
-      </c>
-      <c r="E32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>496</v>
-      </c>
-      <c r="E33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" ref="A34:A53" si="1">ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>465</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>481</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>466</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>482</v>
-      </c>
-      <c r="E37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>467</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>468</v>
-      </c>
-      <c r="E40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>484</v>
-      </c>
-      <c r="E41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>469</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>485</v>
-      </c>
-      <c r="E43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>497</v>
-      </c>
-      <c r="E44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>486</v>
-      </c>
-      <c r="E46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>498</v>
-      </c>
-      <c r="E47">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>471</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>487</v>
-      </c>
-      <c r="E49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>472</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>500</v>
-      </c>
-      <c r="E53">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E53" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
-      <sortCondition ref="B1:B53"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6042DF-4EBE-4EA9-8D04-2EA78291B56C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4086,12 +3495,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9583AA52-5F44-4083-8962-4161C00EA6CA}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4511,12 +3920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F1528E-0B9C-4CD2-89EB-8FFD151EF771}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4832,19 +4241,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="15363" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6776,562 +6185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2703B7C7-6FE4-489B-A4A6-86279E170CB0}">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f t="shared" ref="A3:A34" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>598</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2966FB6C-C3F7-40CD-A351-BF1800F7F8C4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7802,12 +6660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0740C1D-B203-4921-BA8D-9A25B3E64DAD}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8198,7 +7056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD6866-97AD-42DA-9774-4678D1F72157}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -8531,7 +7389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821F370-0792-4A0C-900F-286BE5257D66}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -9499,12 +8357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CCAB88-15F1-429D-84DF-E1E5D4D0A493}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9534,14 +8392,2110 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>ROW()-1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>ROW()-1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>ROW()-1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>ROW()-1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>ROW()-1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>ROW()-1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>ROW()-1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>ROW()-1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>ROW()-1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>ROW()-1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>ROW()-1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>ROW()-1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>ROW()-1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>ROW()-1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>ROW()-1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>ROW()-1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>ROW()-1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>ROW()-1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>ROW()-1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>ROW()-1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>ROW()-1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>ROW()-1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>ROW()-1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>ROW()-1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>ROW()-1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>ROW()-1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>ROW()-1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>ROW()-1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>ROW()-1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>ROW()-1</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>ROW()-1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>ROW()-1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>ROW()-1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>ROW()-1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>ROW()-1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>ROW()-1</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>ROW()-1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>ROW()-1</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>ROW()-1</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>347</v>
+      </c>
+      <c r="E63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>ROW()-1</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f>ROW()-1</f>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>ROW()-1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E66">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f>ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="E67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>ROW()-1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>ROW()-1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>351</v>
+      </c>
+      <c r="E69">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>ROW()-1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f>ROW()-1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>ROW()-1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f>ROW()-1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>353</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>ROW()-1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>364</v>
+      </c>
+      <c r="E74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f>ROW()-1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>ROW()-1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>ROW()-1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>ROW()-1</f>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>366</v>
+      </c>
+      <c r="E78">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>ROW()-1</f>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>ROW()-1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>356</v>
+      </c>
+      <c r="E80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>ROW()-1</f>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>357</v>
+      </c>
+      <c r="E81">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>ROW()-1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E82">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f>ROW()-1</f>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="E83">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>ROW()-1</f>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>358</v>
+      </c>
+      <c r="E84">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>ROW()-1</f>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>359</v>
+      </c>
+      <c r="E85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>ROW()-1</f>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="E86">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f>ROW()-1</f>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>371</v>
+      </c>
+      <c r="E87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>ROW()-1</f>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f>ROW()-1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>361</v>
+      </c>
+      <c r="E89">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>ROW()-1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>372</v>
+      </c>
+      <c r="E90">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>ROW()-1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>ROW()-1</f>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f>ROW()-1</f>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>597</v>
+      </c>
+      <c r="E93">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>ROW()-1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>375</v>
+      </c>
+      <c r="E94">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>ROW()-1</f>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>598</v>
+      </c>
+      <c r="E95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>ROW()-1</f>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f>ROW()-1</f>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>599</v>
+      </c>
+      <c r="E97">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>ROW()-1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>ROW()-1</f>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>600</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>ROW()-1</f>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>378</v>
+      </c>
+      <c r="E100">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f>ROW()-1</f>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>601</v>
+      </c>
+      <c r="E101">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>ROW()-1</f>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f>ROW()-1</f>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>602</v>
+      </c>
+      <c r="E103">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>ROW()-1</f>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f>ROW()-1</f>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>603</v>
+      </c>
+      <c r="E105">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>ROW()-1</f>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>381</v>
+      </c>
+      <c r="E106">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f>ROW()-1</f>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>604</v>
+      </c>
+      <c r="E107">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f>ROW()-1</f>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f>ROW()-1</f>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>605</v>
+      </c>
+      <c r="E109">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f>ROW()-1</f>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f>ROW()-1</f>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>606</v>
+      </c>
+      <c r="E111">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f>ROW()-1</f>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>384</v>
+      </c>
+      <c r="E112">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f>ROW()-1</f>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>607</v>
+      </c>
+      <c r="E113">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>ROW()-1</f>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>385</v>
+      </c>
+      <c r="E114">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f>ROW()-1</f>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>608</v>
+      </c>
+      <c r="E115">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f>ROW()-1</f>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f>ROW()-1</f>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>609</v>
+      </c>
+      <c r="E117">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>ROW()-1</f>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>387</v>
+      </c>
+      <c r="E118">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f>ROW()-1</f>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>610</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f>ROW()-1</f>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>388</v>
+      </c>
+      <c r="E120">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f>ROW()-1</f>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>611</v>
+      </c>
+      <c r="E121">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f>ROW()-1</f>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f>ROW()-1</f>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>612</v>
+      </c>
+      <c r="E123">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f>ROW()-1</f>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>390</v>
+      </c>
+      <c r="E124">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f>ROW()-1</f>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>423</v>
+      </c>
+      <c r="E125">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f>ROW()-1</f>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f>ROW()-1</f>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f>ROW()-1</f>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>392</v>
+      </c>
+      <c r="E128">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f>ROW()-1</f>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>425</v>
+      </c>
+      <c r="E129">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f>ROW()-1</f>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="E130">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f>ROW()-1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>426</v>
+      </c>
+      <c r="E131">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f>ROW()-1</f>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>394</v>
+      </c>
+      <c r="E132">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f>ROW()-1</f>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>427</v>
+      </c>
+      <c r="E133">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f>ROW()-1</f>
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>395</v>
+      </c>
+      <c r="E134">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f>ROW()-1</f>
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>428</v>
+      </c>
+      <c r="E135">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f>ROW()-1</f>
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>396</v>
+      </c>
+      <c r="E136">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f>ROW()-1</f>
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>429</v>
+      </c>
+      <c r="E137">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f>ROW()-1</f>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>397</v>
+      </c>
+      <c r="E138">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f>ROW()-1</f>
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>430</v>
+      </c>
+      <c r="E139">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f>ROW()-1</f>
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>398</v>
+      </c>
+      <c r="E140">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f>ROW()-1</f>
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>431</v>
+      </c>
+      <c r="E141">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f>ROW()-1</f>
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>399</v>
+      </c>
+      <c r="E142">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f>ROW()-1</f>
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f>ROW()-1</f>
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>400</v>
+      </c>
+      <c r="E144">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f>ROW()-1</f>
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>433</v>
+      </c>
+      <c r="E145">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f>ROW()-1</f>
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="E146">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f>ROW()-1</f>
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>434</v>
+      </c>
+      <c r="E147">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f>ROW()-1</f>
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>402</v>
+      </c>
+      <c r="E148">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f>ROW()-1</f>
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>435</v>
+      </c>
+      <c r="E149">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f>ROW()-1</f>
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>403</v>
+      </c>
+      <c r="E150">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f>ROW()-1</f>
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>436</v>
+      </c>
+      <c r="E151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f>ROW()-1</f>
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>404</v>
+      </c>
+      <c r="E152">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f>ROW()-1</f>
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f>ROW()-1</f>
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>405</v>
+      </c>
+      <c r="E154">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f>ROW()-1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>438</v>
+      </c>
+      <c r="E155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f>ROW()-1</f>
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f>ROW()-1</f>
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>407</v>
+      </c>
+      <c r="E157">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f>ROW()-1</f>
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>408</v>
+      </c>
+      <c r="E158">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f>ROW()-1</f>
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>409</v>
+      </c>
+      <c r="E159">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f>ROW()-1</f>
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>410</v>
+      </c>
+      <c r="E160">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f>ROW()-1</f>
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>411</v>
+      </c>
+      <c r="E161">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f>ROW()-1</f>
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>412</v>
+      </c>
+      <c r="E162">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f>ROW()-1</f>
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>413</v>
+      </c>
+      <c r="E163">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f>ROW()-1</f>
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>414</v>
+      </c>
+      <c r="E164">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f>ROW()-1</f>
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>415</v>
+      </c>
+      <c r="E165">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f>ROW()-1</f>
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>416</v>
+      </c>
+      <c r="E166">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f>ROW()-1</f>
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>417</v>
+      </c>
+      <c r="E167">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f>ROW()-1</f>
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>418</v>
+      </c>
+      <c r="E168">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f>ROW()-1</f>
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>419</v>
+      </c>
+      <c r="E169">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f>ROW()-1</f>
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>420</v>
+      </c>
+      <c r="E170">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f>ROW()-1</f>
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>421</v>
+      </c>
+      <c r="E171">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f>ROW()-1</f>
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>422</v>
+      </c>
+      <c r="E172">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E172" xr:uid="{96CCAB88-15F1-429D-84DF-E1E5D4D0A493}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E172">
+      <sortCondition ref="B1:B172"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="E2">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -9550,10 +10504,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="E3">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9562,10 +10516,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9574,10 +10528,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="E5">
-        <v>141</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9586,10 +10540,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="E6">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9598,10 +10552,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="E7">
-        <v>143</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9610,10 +10564,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="E8">
-        <v>144</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9622,10 +10576,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="E9">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -9634,10 +10588,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E10">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -9646,10 +10600,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="E11">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -9658,10 +10612,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="E12">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -9670,10 +10624,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E13">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -9682,10 +10636,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="E14">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9694,10 +10648,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="E15">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -9706,10 +10660,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9718,10 +10672,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="E17">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9730,10 +10684,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="E18">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9742,10 +10696,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E19">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9754,10 +10708,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>476</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9766,10 +10720,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>492</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9778,10 +10732,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>461</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9790,10 +10744,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9802,10 +10756,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9814,10 +10768,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9826,10 +10780,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9838,10 +10792,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>494</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -9850,10 +10804,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>463</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -9862,10 +10816,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>479</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -9874,10 +10828,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>495</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -9886,10 +10840,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>464</v>
       </c>
       <c r="E31">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -9898,10 +10852,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -9910,22 +10864,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>496</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <f t="shared" ref="A34:A53" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -9934,10 +10888,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9946,10 +10900,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -9958,10 +10912,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>482</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -9970,10 +10924,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>467</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -9982,10 +10936,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>483</v>
       </c>
       <c r="E39">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -9994,10 +10948,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10006,10 +10960,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>484</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -10018,10 +10972,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="E42">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -10030,10 +10984,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>485</v>
       </c>
       <c r="E43">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -10042,10 +10996,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -10054,7 +11008,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -10066,10 +11020,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="E46">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -10078,10 +11032,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>498</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -10090,7 +11044,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -10102,10 +11056,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -10114,10 +11068,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>499</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -10126,10 +11080,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
       <c r="E51">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -10138,10 +11092,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -10150,1252 +11104,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>500</v>
       </c>
       <c r="E53">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>343</v>
-      </c>
-      <c r="E55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>320</v>
-      </c>
-      <c r="E56">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>321</v>
-      </c>
-      <c r="E57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>344</v>
-      </c>
-      <c r="E58">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>345</v>
-      </c>
-      <c r="E59">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>322</v>
-      </c>
-      <c r="E60">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>323</v>
-      </c>
-      <c r="E61">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>346</v>
-      </c>
-      <c r="E62">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E63">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>324</v>
-      </c>
-      <c r="E64">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>325</v>
-      </c>
-      <c r="E65">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E66">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>349</v>
-      </c>
-      <c r="E67">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>350</v>
-      </c>
-      <c r="E68">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>351</v>
-      </c>
-      <c r="E69">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>362</v>
-      </c>
-      <c r="E70">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>363</v>
-      </c>
-      <c r="E71">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>352</v>
-      </c>
-      <c r="E72">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>353</v>
-      </c>
-      <c r="E73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>364</v>
-      </c>
-      <c r="E74">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>365</v>
-      </c>
-      <c r="E75">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E76">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>355</v>
-      </c>
-      <c r="E77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>366</v>
-      </c>
-      <c r="E78">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>367</v>
-      </c>
-      <c r="E79">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>356</v>
-      </c>
-      <c r="E80">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>357</v>
-      </c>
-      <c r="E81">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>368</v>
-      </c>
-      <c r="E82">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>369</v>
-      </c>
-      <c r="E83">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>358</v>
-      </c>
-      <c r="E84">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>359</v>
-      </c>
-      <c r="E85">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>370</v>
-      </c>
-      <c r="E86">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>371</v>
-      </c>
-      <c r="E87">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>361</v>
-      </c>
-      <c r="E89">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>372</v>
-      </c>
-      <c r="E90">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>373</v>
-      </c>
-      <c r="E91">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>374</v>
-      </c>
-      <c r="E92">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>375</v>
-      </c>
-      <c r="E93">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>376</v>
-      </c>
-      <c r="E94">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E95">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>378</v>
-      </c>
-      <c r="E96">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>379</v>
-      </c>
-      <c r="E97">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <f t="shared" ref="A98:A129" si="3">ROW()-1</f>
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>381</v>
-      </c>
-      <c r="E99">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>382</v>
-      </c>
-      <c r="E100">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>383</v>
-      </c>
-      <c r="E101">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>384</v>
-      </c>
-      <c r="E102">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>385</v>
-      </c>
-      <c r="E103">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>386</v>
-      </c>
-      <c r="E104">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>387</v>
-      </c>
-      <c r="E105">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>388</v>
-      </c>
-      <c r="E106">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>389</v>
-      </c>
-      <c r="E107">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>390</v>
-      </c>
-      <c r="E108">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>423</v>
-      </c>
-      <c r="E109">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>391</v>
-      </c>
-      <c r="E110">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>424</v>
-      </c>
-      <c r="E111">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>392</v>
-      </c>
-      <c r="E112">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>425</v>
-      </c>
-      <c r="E113">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>393</v>
-      </c>
-      <c r="E114">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>426</v>
-      </c>
-      <c r="E115">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>394</v>
-      </c>
-      <c r="E116">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>427</v>
-      </c>
-      <c r="E117">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>395</v>
-      </c>
-      <c r="E118">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>428</v>
-      </c>
-      <c r="E119">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>396</v>
-      </c>
-      <c r="E120">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>429</v>
-      </c>
-      <c r="E121">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>397</v>
-      </c>
-      <c r="E122">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>430</v>
-      </c>
-      <c r="E123">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>398</v>
-      </c>
-      <c r="E124">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>431</v>
-      </c>
-      <c r="E125">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>399</v>
-      </c>
-      <c r="E126">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>432</v>
-      </c>
-      <c r="E127">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>400</v>
-      </c>
-      <c r="E128">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>433</v>
-      </c>
-      <c r="E129">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <f t="shared" ref="A130:A156" si="4">ROW()-1</f>
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>401</v>
-      </c>
-      <c r="E130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>434</v>
-      </c>
-      <c r="E131">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>402</v>
-      </c>
-      <c r="E132">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <f t="shared" si="4"/>
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>435</v>
-      </c>
-      <c r="E133">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>403</v>
-      </c>
-      <c r="E134">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>436</v>
-      </c>
-      <c r="E135">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>404</v>
-      </c>
-      <c r="E136">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>437</v>
-      </c>
-      <c r="E137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>405</v>
-      </c>
-      <c r="E138">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>438</v>
-      </c>
-      <c r="E139">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>406</v>
-      </c>
-      <c r="E140">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>407</v>
-      </c>
-      <c r="E141">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <f t="shared" si="4"/>
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>408</v>
-      </c>
-      <c r="E142">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>409</v>
-      </c>
-      <c r="E143">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>410</v>
-      </c>
-      <c r="E144">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>411</v>
-      </c>
-      <c r="E145">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>412</v>
-      </c>
-      <c r="E146">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>413</v>
-      </c>
-      <c r="E147">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <f t="shared" si="4"/>
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>414</v>
-      </c>
-      <c r="E148">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <f t="shared" si="4"/>
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>415</v>
-      </c>
-      <c r="E149">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>416</v>
-      </c>
-      <c r="E150">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>417</v>
-      </c>
-      <c r="E151">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>418</v>
-      </c>
-      <c r="E152">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>419</v>
-      </c>
-      <c r="E153">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <f t="shared" si="4"/>
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>420</v>
-      </c>
-      <c r="E154">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>421</v>
-      </c>
-      <c r="E155">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>422</v>
-      </c>
-      <c r="E156">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E156" xr:uid="{96CCAB88-15F1-429D-84DF-E1E5D4D0A493}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E156">
-      <sortCondition ref="B1:B156"/>
+  <autoFilter ref="A1:E53" xr:uid="{35A7EB63-AF35-4A34-A800-1BC5F8A1BD55}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
+      <sortCondition ref="B1:B53"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_linhtinh/file_linhtinh/location_PG.xlsx
+++ b/_linhtinh/file_linhtinh/location_PG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\P&amp;G\my_project\_linhtinh\file_linhtinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E32F7B3-69AF-4AAD-9142-526208190929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A75D6-6546-4925-BDA4-91C99DABCC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="7" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="2" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
   </bookViews>
   <sheets>
     <sheet name="WH2" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="615">
   <si>
     <t>STT</t>
   </si>
@@ -2176,6 +2176,12 @@
   </si>
   <si>
     <t>Z535A</t>
+  </si>
+  <si>
+    <t>WH1L1</t>
+  </si>
+  <si>
+    <t>WHL1</t>
   </si>
 </sst>
 </file>
@@ -4884,10 +4890,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4944,7 +4950,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A63" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6175,6 +6181,34 @@
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8361,7 +8395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CCAB88-15F1-429D-84DF-E1E5D4D0A493}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
@@ -8392,7 +8426,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -8404,7 +8438,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -8416,7 +8450,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -8428,7 +8462,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -8440,7 +8474,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -8452,7 +8486,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -8464,7 +8498,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -8476,7 +8510,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -8488,7 +8522,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -8500,7 +8534,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -8512,7 +8546,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -8524,7 +8558,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -8536,7 +8570,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -8548,7 +8582,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -8560,7 +8594,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -8572,7 +8606,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -8584,7 +8618,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -8596,7 +8630,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -8608,7 +8642,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -8620,7 +8654,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -8632,7 +8666,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -8644,7 +8678,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -8656,7 +8690,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -8668,7 +8702,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -8680,7 +8714,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -8692,7 +8726,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -8704,7 +8738,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -8716,7 +8750,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -8728,7 +8762,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -8740,7 +8774,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -8752,7 +8786,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -8764,7 +8798,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -8776,7 +8810,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -8788,7 +8822,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -8800,7 +8834,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -8812,7 +8846,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -8824,7 +8858,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -8836,7 +8870,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -8848,7 +8882,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -8860,7 +8894,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -8872,7 +8906,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -8884,7 +8918,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -8896,7 +8930,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -8908,7 +8942,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -8920,7 +8954,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -8932,7 +8966,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -8944,7 +8978,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -8956,7 +8990,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -8968,7 +9002,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -8980,7 +9014,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -8992,7 +9026,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -9004,7 +9038,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -9016,7 +9050,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -9028,7 +9062,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -9040,7 +9074,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -9052,7 +9086,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -9064,7 +9098,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -9076,7 +9110,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -9088,7 +9122,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -9100,7 +9134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -9112,7 +9146,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -9124,7 +9158,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -9136,7 +9170,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -9148,7 +9182,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -9160,7 +9194,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -9172,7 +9206,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -9184,7 +9218,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -9196,7 +9230,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -9208,7 +9242,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -9220,7 +9254,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -9232,7 +9266,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -9244,7 +9278,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -9256,7 +9290,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -9268,7 +9302,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -9280,7 +9314,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -9292,7 +9326,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -9304,7 +9338,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -9316,7 +9350,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -9328,7 +9362,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -9340,7 +9374,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -9352,7 +9386,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -9364,7 +9398,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -9376,7 +9410,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -9388,7 +9422,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -9400,7 +9434,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -9412,7 +9446,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -9424,7 +9458,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -9436,7 +9470,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -9448,7 +9482,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -9460,7 +9494,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -9472,7 +9506,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -9484,7 +9518,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -9496,7 +9530,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -9508,7 +9542,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -9520,7 +9554,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -9532,7 +9566,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -9544,7 +9578,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A98:A129" si="3">ROW()-1</f>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -9556,7 +9590,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -9568,7 +9602,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -9580,7 +9614,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -9592,7 +9626,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -9604,7 +9638,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -9616,7 +9650,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -9628,7 +9662,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -9640,7 +9674,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -9652,7 +9686,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -9664,7 +9698,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -9676,7 +9710,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -9688,7 +9722,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -9700,7 +9734,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -9712,7 +9746,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -9724,7 +9758,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -9736,7 +9770,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -9748,7 +9782,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -9760,7 +9794,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -9772,7 +9806,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -9784,7 +9818,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -9796,7 +9830,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -9808,7 +9842,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -9820,7 +9854,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -9832,7 +9866,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -9844,7 +9878,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -9856,7 +9890,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -9868,7 +9902,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -9880,7 +9914,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -9892,7 +9926,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -9904,7 +9938,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -9916,7 +9950,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -9928,7 +9962,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A130:A161" si="4">ROW()-1</f>
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -9940,7 +9974,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -9952,7 +9986,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -9964,7 +9998,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -9976,7 +10010,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -9988,7 +10022,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -10000,7 +10034,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -10012,7 +10046,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -10024,7 +10058,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -10036,7 +10070,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -10048,7 +10082,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -10060,7 +10094,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -10072,7 +10106,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -10084,7 +10118,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -10096,7 +10130,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -10108,7 +10142,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -10120,7 +10154,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -10132,7 +10166,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -10144,7 +10178,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -10156,7 +10190,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -10168,7 +10202,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -10180,7 +10214,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -10192,7 +10226,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -10204,7 +10238,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -10216,7 +10250,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -10228,7 +10262,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -10240,7 +10274,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -10252,7 +10286,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -10264,7 +10298,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -10276,7 +10310,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -10288,7 +10322,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -10300,7 +10334,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -10312,7 +10346,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A162:A172" si="5">ROW()-1</f>
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -10324,7 +10358,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -10336,7 +10370,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -10348,7 +10382,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -10360,7 +10394,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -10372,7 +10406,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -10384,7 +10418,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -10396,7 +10430,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -10408,7 +10442,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -10420,7 +10454,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -10432,7 +10466,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="B172" t="s">

--- a/_linhtinh/file_linhtinh/location_PG.xlsx
+++ b/_linhtinh/file_linhtinh/location_PG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\P&amp;G\my_project\_linhtinh\file_linhtinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_pg\_linhtinh\file_linhtinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A75D6-6546-4925-BDA4-91C99DABCC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F533D3B-74A5-4FBC-B7AF-48EE0AB25DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="27852" windowHeight="16416" activeTab="2" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" activeTab="12" xr2:uid="{4D41C987-C583-498E-A0D5-2638ABE40D36}"/>
   </bookViews>
   <sheets>
     <sheet name="WH2" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="PF3" sheetId="11" r:id="rId10"/>
     <sheet name="PF2" sheetId="12" r:id="rId11"/>
     <sheet name="PF1" sheetId="13" r:id="rId12"/>
+    <sheet name="note" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CL1'!$A$1:$D$25</definedName>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PF4'!$A$1:$E$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PF5'!$A$1:$E$172</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -337,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="635">
   <si>
     <t>STT</t>
   </si>
@@ -2182,6 +2188,76 @@
   </si>
   <si>
     <t>WHL1</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>lấy từ đầu vào</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>name wh</t>
+  </si>
+  <si>
+    <t>type_rack</t>
+  </si>
+  <si>
+    <t>nếu name_wh là wh2 và tầng là A thì type_rack là PF.
+Nếu name_wh khác wh2 và tầng là A thì type_rack PF
+Còn lại type_rack là HR</t>
+  </si>
+  <si>
+    <t>type_loc</t>
+  </si>
+  <si>
+    <t>nếu rack là DB và ký tự tầng bằng 2 -&gt; ST
+name_rack HO -&gt; type_rack HO
+còn lại type_rack bằng category rack</t>
+  </si>
+  <si>
+    <t>name_rack</t>
+  </si>
+  <si>
+    <t>Nếu vị trí là bin HO -&gt; name_rack HO
+còn lại name_rack lấy từ đầu vào</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>num_pallet</t>
+  </si>
+  <si>
+    <t>ctgr là DB và len tầng = 1 -&gt; 2
+ctgr là OB tầng A  -&gt; 4
+còn lại là 1</t>
+  </si>
+  <si>
+    <t>stack_limit</t>
+  </si>
+  <si>
+    <t>ctgr là OB và tầng A -&gt; 2
+còn lại là 1</t>
+  </si>
+  <si>
+    <t>foot_print</t>
+  </si>
+  <si>
+    <t>ctgr là OB và tầng A -&gt; 8
+ctgr là DB len tầng 1 -&gt; 2
+còn lại là 1</t>
+  </si>
+  <si>
+    <t>dự vào from_bin và to_bin để note</t>
   </si>
 </sst>
 </file>
@@ -2251,11 +2327,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2334,9 +2413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2374,7 +2453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2480,7 +2559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2622,7 +2701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2636,16 +2715,16 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2689,7 +2768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A28" si="0">ROW()-1</f>
         <v>2</v>
@@ -2710,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2731,7 +2810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2755,7 +2834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2776,7 +2855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2797,7 +2876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2818,7 +2897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2839,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2860,7 +2939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2881,7 +2960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2902,7 +2981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2923,7 +3002,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2944,7 +3023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2953,7 +3032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2962,7 +3041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2971,7 +3050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2980,7 +3059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2989,7 +3068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2998,7 +3077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3007,7 +3086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3016,7 +3095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3025,7 +3104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3034,7 +3113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3043,7 +3122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3052,7 +3131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3061,7 +3140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3084,12 +3163,12 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3185,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
@@ -3118,7 +3197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3130,7 +3209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3142,7 +3221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3154,7 +3233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3166,7 +3245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3178,7 +3257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3190,7 +3269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3202,7 +3281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3214,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3226,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3238,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3250,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3262,7 +3341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3274,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3286,7 +3365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3298,7 +3377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3310,7 +3389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3322,7 +3401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3334,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3346,7 +3425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3358,7 +3437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3370,7 +3449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3382,7 +3461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3394,7 +3473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3406,7 +3485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3418,7 +3497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3430,7 +3509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3442,7 +3521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3454,7 +3533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3466,7 +3545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3478,7 +3557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3509,12 +3588,12 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
@@ -3543,7 +3622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3555,7 +3634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3567,7 +3646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3579,7 +3658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3591,7 +3670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3603,7 +3682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3615,7 +3694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3627,7 +3706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3639,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3651,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3663,7 +3742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3675,7 +3754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3687,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3699,7 +3778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3711,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3723,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3735,7 +3814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3747,7 +3826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3759,7 +3838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3771,7 +3850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3783,7 +3862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3795,7 +3874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3807,7 +3886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3819,7 +3898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3831,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3843,7 +3922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3855,7 +3934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3867,7 +3946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3879,7 +3958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3891,7 +3970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3903,7 +3982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3934,12 +4013,12 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +4035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A24" si="0">ROW()-1</f>
         <v>1</v>
@@ -3968,7 +4047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3980,7 +4059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3992,7 +4071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4004,7 +4083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4016,7 +4095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4028,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4040,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4052,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4064,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4076,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4088,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4100,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4112,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4124,7 +4203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4136,7 +4215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4148,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4160,7 +4239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4172,7 +4251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4184,7 +4263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4196,7 +4275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4208,7 +4287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4220,7 +4299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4273,6 +4352,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0127D705-15FC-426A-A9B0-DFF6A277E1D4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E1C104-12E7-472A-9F1A-3FDC013470EB}">
   <dimension ref="A1:G36"/>
@@ -4281,15 +4471,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4312,7 +4502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -4333,7 +4523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A36" si="0">ROW()-1</f>
         <v>2</v>
@@ -4354,7 +4544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4375,7 +4565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4396,7 +4586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4417,7 +4607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4441,7 +4631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4462,7 +4652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4483,7 +4673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4507,7 +4697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4528,7 +4718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4549,7 +4739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4570,7 +4760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4591,7 +4781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4612,7 +4802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4633,7 +4823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4654,7 +4844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4675,7 +4865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4696,7 +4886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4720,7 +4910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4741,7 +4931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4753,7 +4943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4762,7 +4952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4771,7 +4961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4780,7 +4970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4789,7 +4979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4798,7 +4988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4807,7 +4997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4816,7 +5006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4825,7 +5015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4834,7 +5024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4843,7 +5033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4852,7 +5042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4861,7 +5051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4870,7 +5060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4892,18 +5082,18 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +5116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -4948,7 +5138,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
@@ -4970,7 +5160,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4992,7 +5182,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5014,7 +5204,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5036,7 +5226,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5058,7 +5248,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5080,7 +5270,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5102,7 +5292,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5124,7 +5314,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5148,7 +5338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5170,7 +5360,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5192,7 +5382,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5214,7 +5404,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5238,7 +5428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5262,7 +5452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5284,7 +5474,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5306,7 +5496,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5328,7 +5518,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5352,7 +5542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5374,7 +5564,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5396,7 +5586,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5418,7 +5608,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5442,7 +5632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5466,7 +5656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5488,7 +5678,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5510,7 +5700,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5532,7 +5722,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5556,7 +5746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5578,7 +5768,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5600,7 +5790,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5622,7 +5812,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5646,7 +5836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5668,7 +5858,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5692,7 +5882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5714,7 +5904,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5738,7 +5928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5760,7 +5950,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5782,7 +5972,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5804,7 +5994,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5826,7 +6016,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5848,7 +6038,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5870,7 +6060,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5892,7 +6082,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5914,7 +6104,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5936,7 +6126,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5958,7 +6148,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5972,7 +6162,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5986,7 +6176,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6000,7 +6190,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6014,7 +6204,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6028,7 +6218,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6042,7 +6232,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6056,7 +6246,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6070,7 +6260,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6084,7 +6274,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6098,7 +6288,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6112,7 +6302,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6126,7 +6316,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6140,7 +6330,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6154,7 +6344,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6168,7 +6358,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6182,7 +6372,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6196,7 +6386,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6226,17 +6416,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6259,7 +6449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -6283,7 +6473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A30" si="0">ROW()-1</f>
         <v>2</v>
@@ -6307,7 +6497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6328,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6349,7 +6539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6370,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6391,7 +6581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6412,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6433,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6454,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6475,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6496,7 +6686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6520,7 +6710,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6544,7 +6734,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6553,7 +6743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6562,7 +6752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6571,7 +6761,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6580,7 +6770,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6589,7 +6779,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6598,7 +6788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6607,7 +6797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6616,7 +6806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6625,7 +6815,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6634,7 +6824,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6643,7 +6833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6652,7 +6842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6661,7 +6851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6670,7 +6860,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6679,7 +6869,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6702,14 +6892,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6723,7 +6913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -6738,7 +6928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>168</v>
       </c>
@@ -6746,7 +6936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>169</v>
       </c>
@@ -6754,7 +6944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>170</v>
       </c>
@@ -6762,7 +6952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
@@ -6770,7 +6960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>172</v>
       </c>
@@ -6778,7 +6968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>173</v>
       </c>
@@ -6786,7 +6976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>174</v>
       </c>
@@ -6794,7 +6984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>175</v>
       </c>
@@ -6802,7 +6992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>176</v>
       </c>
@@ -6810,7 +7000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>177</v>
       </c>
@@ -6818,7 +7008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>178</v>
       </c>
@@ -6826,7 +7016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>179</v>
       </c>
@@ -6834,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>180</v>
       </c>
@@ -6842,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>181</v>
       </c>
@@ -6850,7 +7040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>182</v>
       </c>
@@ -6858,7 +7048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>183</v>
       </c>
@@ -6866,7 +7056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>184</v>
       </c>
@@ -6877,7 +7067,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>185</v>
       </c>
@@ -6888,7 +7078,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>187</v>
       </c>
@@ -6896,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>188</v>
       </c>
@@ -6904,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>189</v>
       </c>
@@ -6912,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>190</v>
       </c>
@@ -6920,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>192</v>
       </c>
@@ -6928,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>193</v>
       </c>
@@ -6936,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>195</v>
       </c>
@@ -6944,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>196</v>
       </c>
@@ -6952,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>198</v>
       </c>
@@ -6960,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>199</v>
       </c>
@@ -6968,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>201</v>
       </c>
@@ -6976,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -6984,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>204</v>
       </c>
@@ -6992,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>205</v>
       </c>
@@ -7000,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>207</v>
       </c>
@@ -7008,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -7016,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>186</v>
       </c>
@@ -7027,7 +7217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>191</v>
       </c>
@@ -7035,7 +7225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>194</v>
       </c>
@@ -7043,7 +7233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>197</v>
       </c>
@@ -7051,7 +7241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>200</v>
       </c>
@@ -7059,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>203</v>
       </c>
@@ -7067,7 +7257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>206</v>
       </c>
@@ -7075,7 +7265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>209</v>
       </c>
@@ -7098,14 +7288,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7119,7 +7309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A25" si="0">ROW()-1</f>
         <v>1</v>
@@ -7131,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7143,7 +7333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7158,7 +7348,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7173,7 +7363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7185,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7197,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7209,7 +7399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7221,7 +7411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7233,7 +7423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7245,7 +7435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7257,7 +7447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7269,7 +7459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7281,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7293,7 +7483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7305,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7317,7 +7507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7329,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7341,7 +7531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7353,7 +7543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7365,7 +7555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7377,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7389,7 +7579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7401,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7431,14 +7621,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7455,7 +7645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
@@ -7470,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7485,7 +7675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7500,7 +7690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7515,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7530,7 +7720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7545,7 +7735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7560,7 +7750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7575,7 +7765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7590,7 +7780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7605,7 +7795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7620,7 +7810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7635,7 +7825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7650,7 +7840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7665,7 +7855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7680,7 +7870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7695,7 +7885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7710,7 +7900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7725,7 +7915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7740,7 +7930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7755,7 +7945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7770,7 +7960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7785,7 +7975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7800,7 +7990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7815,7 +8005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7830,7 +8020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7845,7 +8035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7860,7 +8050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7875,7 +8065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7890,7 +8080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7905,7 +8095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7920,7 +8110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7935,7 +8125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ref="A34:A63" si="1">ROW()-1</f>
         <v>33</v>
@@ -7950,7 +8140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7965,7 +8155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7980,7 +8170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7995,7 +8185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8010,7 +8200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8025,7 +8215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8040,7 +8230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8055,7 +8245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8070,7 +8260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8085,7 +8275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8100,7 +8290,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8115,7 +8305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8130,7 +8320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8145,7 +8335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8160,7 +8350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8175,7 +8365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8190,7 +8380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8205,7 +8395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8220,7 +8410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -8235,7 +8425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -8250,7 +8440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -8265,7 +8455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -8280,7 +8470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -8295,7 +8485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -8310,7 +8500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8325,7 +8515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8340,7 +8530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8355,7 +8545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8370,7 +8560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8399,15 +8589,15 @@
       <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8424,7 +8614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
@@ -8436,7 +8626,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8448,7 +8638,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8460,7 +8650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8472,7 +8662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8484,7 +8674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8496,7 +8686,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8508,7 +8698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8520,7 +8710,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8532,7 +8722,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8544,7 +8734,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8556,7 +8746,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8568,7 +8758,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8580,7 +8770,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8592,7 +8782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8604,7 +8794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8616,7 +8806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8628,7 +8818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8640,7 +8830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8652,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8664,7 +8854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8676,7 +8866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8688,7 +8878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8700,7 +8890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8712,7 +8902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8724,7 +8914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8736,7 +8926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8748,7 +8938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8760,7 +8950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8772,7 +8962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8784,7 +8974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8796,7 +8986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8808,7 +8998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
@@ -8820,7 +9010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8832,7 +9022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8844,7 +9034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8856,7 +9046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8868,7 +9058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8880,7 +9070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8892,7 +9082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8904,7 +9094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8916,7 +9106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8928,7 +9118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8940,7 +9130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8952,7 +9142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8964,7 +9154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8976,7 +9166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8988,7 +9178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9000,7 +9190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9012,7 +9202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9024,7 +9214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9036,7 +9226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9048,7 +9238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9060,7 +9250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9072,7 +9262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9084,7 +9274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9096,7 +9286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -9108,7 +9298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -9120,7 +9310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -9132,7 +9322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9144,7 +9334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -9156,7 +9346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -9168,7 +9358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -9180,7 +9370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -9192,7 +9382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
         <v>65</v>
@@ -9204,7 +9394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -9216,7 +9406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -9228,7 +9418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -9240,7 +9430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -9252,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -9264,7 +9454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -9276,7 +9466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -9288,7 +9478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -9300,7 +9490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -9312,7 +9502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -9324,7 +9514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -9336,7 +9526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -9348,7 +9538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -9360,7 +9550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -9372,7 +9562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -9384,7 +9574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -9396,7 +9586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -9408,7 +9598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -9420,7 +9610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -9432,7 +9622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -9444,7 +9634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -9456,7 +9646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -9468,7 +9658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -9480,7 +9670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -9492,7 +9682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -9504,7 +9694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -9516,7 +9706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -9528,7 +9718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -9540,7 +9730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -9552,7 +9742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -9564,7 +9754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -9576,7 +9766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ref="A98:A129" si="3">ROW()-1</f>
         <v>97</v>
@@ -9588,7 +9778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -9600,7 +9790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -9612,7 +9802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -9624,7 +9814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -9636,7 +9826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -9648,7 +9838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -9660,7 +9850,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -9672,7 +9862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -9684,7 +9874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -9696,7 +9886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -9708,7 +9898,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -9720,7 +9910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -9732,7 +9922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -9744,7 +9934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -9756,7 +9946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -9768,7 +9958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -9780,7 +9970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -9792,7 +9982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -9804,7 +9994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -9816,7 +10006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -9828,7 +10018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -9840,7 +10030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -9852,7 +10042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -9864,7 +10054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -9876,7 +10066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -9888,7 +10078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -9900,7 +10090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -9912,7 +10102,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -9924,7 +10114,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -9936,7 +10126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -9948,7 +10138,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -9960,7 +10150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130:A161" si="4">ROW()-1</f>
         <v>129</v>
@@ -9972,7 +10162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -9984,7 +10174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -9996,7 +10186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -10008,7 +10198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -10020,7 +10210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -10032,7 +10222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -10044,7 +10234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -10056,7 +10246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -10068,7 +10258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -10080,7 +10270,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -10092,7 +10282,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -10104,7 +10294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -10116,7 +10306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -10128,7 +10318,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -10140,7 +10330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -10152,7 +10342,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -10164,7 +10354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -10176,7 +10366,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -10188,7 +10378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -10200,7 +10390,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -10212,7 +10402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -10224,7 +10414,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -10236,7 +10426,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -10248,7 +10438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -10260,7 +10450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -10272,7 +10462,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -10284,7 +10474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -10296,7 +10486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -10308,7 +10498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -10320,7 +10510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -10332,7 +10522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -10344,7 +10534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ref="A162:A172" si="5">ROW()-1</f>
         <v>161</v>
@@ -10356,7 +10546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -10368,7 +10558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -10380,7 +10570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -10392,7 +10582,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -10404,7 +10594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -10416,7 +10606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -10428,7 +10618,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -10440,7 +10630,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -10452,7 +10642,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -10464,7 +10654,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -10495,15 +10685,15 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10520,7 +10710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
@@ -10532,7 +10722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -10544,7 +10734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10556,7 +10746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10568,7 +10758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10580,7 +10770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10592,7 +10782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10604,7 +10794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10616,7 +10806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10628,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10640,7 +10830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10652,7 +10842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10664,7 +10854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10676,7 +10866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10688,7 +10878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10700,7 +10890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10712,7 +10902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10724,7 +10914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10736,7 +10926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10748,7 +10938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10760,7 +10950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10772,7 +10962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10784,7 +10974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10796,7 +10986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10808,7 +10998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10820,7 +11010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10832,7 +11022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10844,7 +11034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10856,7 +11046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10868,7 +11058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10880,7 +11070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10892,7 +11082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10904,7 +11094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ref="A34:A53" si="1">ROW()-1</f>
         <v>33</v>
@@ -10916,7 +11106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -10928,7 +11118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -10940,7 +11130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -10952,7 +11142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -10964,7 +11154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -10976,7 +11166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -10988,7 +11178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -11000,7 +11190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -11012,7 +11202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -11024,7 +11214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -11036,7 +11226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -11048,7 +11238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -11060,7 +11250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -11072,7 +11262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -11084,7 +11274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -11096,7 +11286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -11108,7 +11298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -11120,7 +11310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -11132,7 +11322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
